--- a/Wine_Quality/outputs/train_60_test_40/depth_4/wq_train_60_test_40_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_4/wq_train_60_test_40_depth_4_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6112852664576802</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3816046966731898</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7900326797385621</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9718592964824121</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.871563767462821</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6026490066225165</v>
+        <v>0.8191816981962164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.935678391959799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2749244712990936</v>
+        <v>0.8735632183908046</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4642272287870262</v>
+        <v>0.5244413691703466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.383313829421078</v>
+        <v>0.4424957234218806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3821627462539716</v>
+        <v>0.4541634518369043</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7234007984085589</v>
+        <v>0.7528042903310294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7791458253174298</v>
+        <v>0.7918430165448249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7213921901057525</v>
+        <v>0.7619722604845354</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_4/wq_train_60_test_40_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_4/wq_train_60_test_40_depth_4_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6112852664576802</v>
+        <v>0.61</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3816046966731898</v>
+        <v>0.38</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.47</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8191816981962164</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.935678391959799</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8735632183908046</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7918430165448249</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7918430165448249</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7918430165448249</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7918430165448249</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5244413691703466</v>
+        <v>0.52</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4424957234218806</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4541634518369043</v>
+        <v>0.45</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7528042903310294</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7918430165448249</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7619722604845354</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
